--- a/Review Log/Review Log Sheet.xlsx
+++ b/Review Log/Review Log Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -106,12 +106,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -147,6 +147,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +282,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,23 +458,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -498,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -515,7 +525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -532,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -549,7 +559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -566,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" customHeight="1">
+    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -593,24 +603,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review Log/Review Log Sheet.xlsx
+++ b/Review Log/Review Log Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Review No.</t>
   </si>
@@ -101,6 +101,36 @@
   <si>
     <t xml:space="preserve">Change the tasks time to meet
  the delivery deadline </t>
+  </si>
+  <si>
+    <t>RV_00_70</t>
+  </si>
+  <si>
+    <t>LM35 CDD</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>Kareem</t>
+  </si>
+  <si>
+    <t>RV_00_80</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Alhassan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to be organized </t>
+  </si>
+  <si>
+    <t>missing some requirements</t>
+  </si>
+  <si>
+    <t>RV_00_90</t>
   </si>
 </sst>
 </file>
@@ -459,17 +489,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -591,6 +621,57 @@
       </c>
       <c r="E7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Review Log/Review Log Sheet.xlsx
+++ b/Review Log/Review Log Sheet.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Review No.</t>
   </si>
@@ -124,13 +124,22 @@
     <t>Alhassan</t>
   </si>
   <si>
-    <t xml:space="preserve">Need to be organized </t>
-  </si>
-  <si>
     <t>missing some requirements</t>
   </si>
   <si>
     <t>RV_00_90</t>
+  </si>
+  <si>
+    <t>RV_00_100</t>
+  </si>
+  <si>
+    <t>Modify our software hirarchy</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables Need to be more simple &amp; readable </t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,20 +171,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -192,11 +328,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Review No."/>
-    <tableColumn id="2" name="Document Name"/>
-    <tableColumn id="4" name="Changes"/>
-    <tableColumn id="5" name="Complexity"/>
-    <tableColumn id="6" name="Reviewer Name"/>
+    <tableColumn id="1" name="Review No." dataDxfId="4"/>
+    <tableColumn id="2" name="Document Name" dataDxfId="3"/>
+    <tableColumn id="4" name="Changes" dataDxfId="2"/>
+    <tableColumn id="5" name="Complexity" dataDxfId="1"/>
+    <tableColumn id="6" name="Reviewer Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -489,16 +625,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
@@ -522,157 +658,202 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Review Log/Review Log Sheet.xlsx
+++ b/Review Log/Review Log Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Review No.</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Reviewer Name</t>
   </si>
   <si>
-    <t>RV_00_10</t>
-  </si>
-  <si>
     <t>SRS</t>
   </si>
   <si>
@@ -48,18 +45,12 @@
     <t>Easy</t>
   </si>
   <si>
-    <t>RV_00_20</t>
-  </si>
-  <si>
     <t>Project plan</t>
   </si>
   <si>
     <t>ADDING Project scope</t>
   </si>
   <si>
-    <t>RV_00_30</t>
-  </si>
-  <si>
     <t>CI</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>Yasser</t>
   </si>
   <si>
-    <t>RV_00_40</t>
-  </si>
-  <si>
     <t>CRS</t>
   </si>
   <si>
@@ -84,16 +72,10 @@
     <t>yasser</t>
   </si>
   <si>
-    <t>RV_00_50</t>
-  </si>
-  <si>
     <t>Estimation Sheet</t>
   </si>
   <si>
     <t xml:space="preserve">Change the hour cost </t>
-  </si>
-  <si>
-    <t>RV_00_60</t>
   </si>
   <si>
     <t>Project Schedule</t>
@@ -103,21 +85,12 @@
  the delivery deadline </t>
   </si>
   <si>
-    <t>RV_00_70</t>
-  </si>
-  <si>
     <t>LM35 CDD</t>
   </si>
   <si>
-    <t>MED</t>
-  </si>
-  <si>
     <t>Kareem</t>
   </si>
   <si>
-    <t>RV_00_80</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -127,32 +100,71 @@
     <t>missing some requirements</t>
   </si>
   <si>
-    <t>RV_00_90</t>
-  </si>
-  <si>
-    <t>RV_00_100</t>
-  </si>
-  <si>
     <t>Modify our software hirarchy</t>
   </si>
   <si>
-    <t>med</t>
-  </si>
-  <si>
     <t xml:space="preserve">Variables Need to be more simple &amp; readable </t>
+  </si>
+  <si>
+    <t>App-CDD</t>
+  </si>
+  <si>
+    <t>Adding tags for each APIs, updating their description, adding table for APIs variables and global variables, and updating the configuration table.</t>
+  </si>
+  <si>
+    <t>Hoda</t>
+  </si>
+  <si>
+    <t>RV_01</t>
+  </si>
+  <si>
+    <t>RV_02</t>
+  </si>
+  <si>
+    <t>RV_03</t>
+  </si>
+  <si>
+    <t>RV_04</t>
+  </si>
+  <si>
+    <t>RV_05</t>
+  </si>
+  <si>
+    <t>RV_06</t>
+  </si>
+  <si>
+    <t>RV_07</t>
+  </si>
+  <si>
+    <t>RV_08</t>
+  </si>
+  <si>
+    <t>RV_09</t>
+  </si>
+  <si>
+    <t>RV_10</t>
+  </si>
+  <si>
+    <t>RV_11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,23 +198,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -215,16 +257,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -237,16 +274,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -259,16 +291,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -281,16 +308,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -303,12 +325,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -325,14 +341,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Review No." dataDxfId="4"/>
-    <tableColumn id="2" name="Document Name" dataDxfId="3"/>
-    <tableColumn id="4" name="Changes" dataDxfId="2"/>
-    <tableColumn id="5" name="Complexity" dataDxfId="1"/>
-    <tableColumn id="6" name="Reviewer Name" dataDxfId="0"/>
+    <tableColumn id="1" name="Review No." dataDxfId="6"/>
+    <tableColumn id="2" name="Document Name" dataDxfId="5"/>
+    <tableColumn id="4" name="Changes" dataDxfId="4"/>
+    <tableColumn id="5" name="Complexity" dataDxfId="3"/>
+    <tableColumn id="6" name="Reviewer Name" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,236 +644,247 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
